--- a/static/media/records/17CO18.xlsx
+++ b/static/media/records/17CO18.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,16 @@
           <t>02-07-2021</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>03-07-2021</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>03-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -487,6 +497,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -519,6 +539,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -551,6 +581,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -581,6 +621,33 @@
       <c r="F5" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1JT17CS058</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -595,7 +662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,6 +701,16 @@
           <t>02-07-2021</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>03-07-2021</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>03-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -666,6 +743,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -698,6 +785,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -730,6 +827,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -760,6 +867,33 @@
       <c r="F5" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1JT17CS058</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -774,7 +908,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -813,6 +947,16 @@
           <t>02-07-2021</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>03-07-2021</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>03-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -845,6 +989,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -877,6 +1031,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -909,6 +1073,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -939,6 +1113,33 @@
       <c r="F5" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1JT17CS058</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Absent</t>
         </is>
       </c>
     </row>

--- a/static/media/records/17CO18.xlsx
+++ b/static/media/records/17CO18.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,11 @@
           <t>03-07-2021</t>
         </is>
       </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>04-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -507,6 +512,11 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -549,6 +559,11 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -591,6 +606,11 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -633,6 +653,11 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -646,6 +671,11 @@
         </is>
       </c>
       <c r="H6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
@@ -662,7 +692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -711,6 +741,11 @@
           <t>03-07-2021</t>
         </is>
       </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>04-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -753,6 +788,11 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -795,6 +835,11 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -837,6 +882,11 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -879,6 +929,11 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -892,6 +947,11 @@
         </is>
       </c>
       <c r="H6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
@@ -908,7 +968,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -957,6 +1017,11 @@
           <t>03-07-2021</t>
         </is>
       </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>04-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -999,6 +1064,11 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1041,6 +1111,11 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1083,6 +1158,11 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1125,6 +1205,11 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1138,6 +1223,11 @@
         </is>
       </c>
       <c r="H6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>

--- a/static/media/records/17CO18.xlsx
+++ b/static/media/records/17CO18.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,16 @@
           <t>02-07-2021</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>04-07-2021</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>04-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -487,6 +497,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -519,6 +539,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -551,6 +581,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -581,6 +621,33 @@
       <c r="F5" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1JT17CS058</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -595,7 +662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,6 +701,16 @@
           <t>02-07-2021</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>04-07-2021</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>04-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -666,6 +743,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -698,6 +785,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -730,6 +827,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -760,6 +867,33 @@
       <c r="F5" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1JT17CS058</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -774,7 +908,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -813,6 +947,16 @@
           <t>02-07-2021</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>04-07-2021</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>04-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -845,6 +989,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -877,6 +1031,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -909,6 +1073,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -939,6 +1113,33 @@
       <c r="F5" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1JT17CS058</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Absent</t>
         </is>
       </c>
     </row>

--- a/static/media/records/17CO18.xlsx
+++ b/static/media/records/17CO18.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,81 @@
           <t>04-07-2021</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>04-07-2021</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>04-07-2021</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>04-07-2021</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>04-07-2021</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>04-07-2021</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>04-07-2021</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>05-07-2021</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -517,6 +592,81 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -564,6 +714,81 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -611,6 +836,81 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -658,6 +958,81 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -676,6 +1051,118 @@
         </is>
       </c>
       <c r="I6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1JT17CS060</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
@@ -692,7 +1179,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -746,6 +1233,81 @@
           <t>04-07-2021</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>04-07-2021</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>04-07-2021</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>04-07-2021</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>04-07-2021</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>04-07-2021</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>04-07-2021</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>05-07-2021</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -793,6 +1355,81 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -840,6 +1477,81 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -887,6 +1599,81 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -934,6 +1721,81 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -952,6 +1814,118 @@
         </is>
       </c>
       <c r="I6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1JT17CS060</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
@@ -968,7 +1942,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1022,6 +1996,81 @@
           <t>04-07-2021</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>04-07-2021</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>04-07-2021</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>04-07-2021</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>04-07-2021</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>04-07-2021</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>04-07-2021</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>05-07-2021</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1069,6 +2118,81 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1116,6 +2240,81 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1163,6 +2362,81 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1210,6 +2484,81 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1228,6 +2577,118 @@
         </is>
       </c>
       <c r="I6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1JT17CS060</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>

--- a/static/media/records/17CO18.xlsx
+++ b/static/media/records/17CO18.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,21 @@
           <t>07-07-2021</t>
         </is>
       </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>10-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -667,6 +682,21 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -789,6 +819,21 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -911,6 +956,21 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1033,6 +1093,21 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1130,6 +1205,21 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1163,6 +1253,21 @@
         </is>
       </c>
       <c r="X7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
@@ -1179,7 +1284,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1308,6 +1413,21 @@
           <t>07-07-2021</t>
         </is>
       </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>10-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1430,6 +1550,21 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1552,6 +1687,21 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1674,6 +1824,21 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1796,6 +1961,21 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1893,6 +2073,21 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1926,6 +2121,21 @@
         </is>
       </c>
       <c r="X7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
@@ -1942,7 +2152,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2071,6 +2281,21 @@
           <t>07-07-2021</t>
         </is>
       </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>07-07-2021</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>10-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2193,6 +2418,21 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2315,6 +2555,21 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2437,6 +2692,21 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2559,6 +2829,21 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2656,6 +2941,21 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2689,6 +2989,21 @@
         </is>
       </c>
       <c r="X7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>

--- a/static/media/records/17CO18.xlsx
+++ b/static/media/records/17CO18.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,6 +560,16 @@
           <t>10-07-2021</t>
         </is>
       </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>11-07-2021</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>11-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -697,6 +707,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -834,6 +854,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -971,6 +1001,16 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1108,6 +1148,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1220,6 +1270,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1268,6 +1328,16 @@
         </is>
       </c>
       <c r="AA7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
@@ -1284,7 +1354,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1428,6 +1498,16 @@
           <t>10-07-2021</t>
         </is>
       </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>11-07-2021</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>11-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1565,6 +1645,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1702,6 +1792,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1839,6 +1939,16 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1976,6 +2086,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2088,6 +2208,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2136,6 +2266,16 @@
         </is>
       </c>
       <c r="AA7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
@@ -2152,7 +2292,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2296,6 +2436,16 @@
           <t>10-07-2021</t>
         </is>
       </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>11-07-2021</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>11-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2433,6 +2583,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2570,6 +2730,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2707,6 +2877,16 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2844,6 +3024,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2956,6 +3146,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3004,6 +3204,16 @@
         </is>
       </c>
       <c r="AA7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>

--- a/static/media/records/17CO18.xlsx
+++ b/static/media/records/17CO18.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AU7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,6 +560,106 @@
           <t>10-07-2021</t>
         </is>
       </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>12-07-2021</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>12-07-2021</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>12-07-2021</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>12-07-2021</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>12-07-2021</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>12-07-2021</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>12-07-2021</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>13-07-2021</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>13-07-2021</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>13-07-2021</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>13-07-2021</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>13-07-2021</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>13-07-2021</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>13-07-2021</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>13-07-2021</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>13-07-2021</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>14-07-2021</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>14-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -697,6 +797,106 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -834,6 +1034,106 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -971,6 +1271,106 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1108,6 +1508,106 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1220,6 +1720,106 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1268,6 +1868,96 @@
         </is>
       </c>
       <c r="AA7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
@@ -1284,7 +1974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AU7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1428,6 +2118,106 @@
           <t>10-07-2021</t>
         </is>
       </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>12-07-2021</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>12-07-2021</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>12-07-2021</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>12-07-2021</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>12-07-2021</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>12-07-2021</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>12-07-2021</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>13-07-2021</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>13-07-2021</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>13-07-2021</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>13-07-2021</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>13-07-2021</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>13-07-2021</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>13-07-2021</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>13-07-2021</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>13-07-2021</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>14-07-2021</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>14-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1565,6 +2355,106 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1702,6 +2592,106 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1839,6 +2829,106 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1976,6 +3066,106 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2088,6 +3278,106 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2136,6 +3426,96 @@
         </is>
       </c>
       <c r="AA7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
@@ -2152,7 +3532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AU7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2296,6 +3676,106 @@
           <t>10-07-2021</t>
         </is>
       </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>12-07-2021</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>12-07-2021</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>12-07-2021</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>12-07-2021</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>12-07-2021</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>12-07-2021</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>12-07-2021</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>13-07-2021</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>13-07-2021</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>13-07-2021</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>13-07-2021</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>13-07-2021</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>13-07-2021</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>13-07-2021</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>13-07-2021</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>13-07-2021</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>14-07-2021</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>14-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2433,6 +3913,106 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2570,6 +4150,106 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2707,6 +4387,106 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2844,6 +4624,106 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2956,6 +4836,106 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3004,6 +4984,96 @@
         </is>
       </c>
       <c r="AA7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>

--- a/static/media/records/17CO18.xlsx
+++ b/static/media/records/17CO18.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU7"/>
+  <dimension ref="A1:AW7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,6 +660,16 @@
           <t>14-07-2021</t>
         </is>
       </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>14-07-2021</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>14-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -897,6 +907,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1134,6 +1154,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1371,6 +1401,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1608,6 +1648,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1820,6 +1870,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1958,6 +2018,16 @@
         </is>
       </c>
       <c r="AU7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AW7" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
@@ -1974,7 +2044,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU7"/>
+  <dimension ref="A1:AW7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2218,6 +2288,16 @@
           <t>14-07-2021</t>
         </is>
       </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>14-07-2021</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>14-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2455,6 +2535,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2692,6 +2782,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2929,6 +3029,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3166,6 +3276,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3378,6 +3498,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3516,6 +3646,16 @@
         </is>
       </c>
       <c r="AU7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AW7" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
@@ -3532,7 +3672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU7"/>
+  <dimension ref="A1:AW7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3776,6 +3916,16 @@
           <t>14-07-2021</t>
         </is>
       </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>14-07-2021</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>14-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4013,6 +4163,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4250,6 +4410,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4487,6 +4657,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4724,6 +4904,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4936,6 +5126,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5074,6 +5274,16 @@
         </is>
       </c>
       <c r="AU7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AW7" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>

--- a/static/media/records/17CO18.xlsx
+++ b/static/media/records/17CO18.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW7"/>
+  <dimension ref="A1:BH7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,6 +670,61 @@
           <t>14-07-2021</t>
         </is>
       </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>14-07-2021</t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>14-07-2021</t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>14-07-2021</t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t>14-07-2021</t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t>15-07-2021</t>
+        </is>
+      </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t>15-07-2021</t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t>15-07-2021</t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t>15-07-2021</t>
+        </is>
+      </c>
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t>15-07-2021</t>
+        </is>
+      </c>
+      <c r="BG1" t="inlineStr">
+        <is>
+          <t>15-07-2021</t>
+        </is>
+      </c>
+      <c r="BH1" t="inlineStr">
+        <is>
+          <t>15-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -917,6 +972,61 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1164,6 +1274,61 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BD3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1411,11 +1576,66 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BA4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BD4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1JT17CS052</t>
+          <t>1JT17CS058</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1654,6 +1874,61 @@
         </is>
       </c>
       <c r="AW5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BD5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BF5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BG5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BH5" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
@@ -1662,7 +1937,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1JT17CS058</t>
+          <t>1JT17CS060</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1876,6 +2151,61 @@
         </is>
       </c>
       <c r="AW6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AZ6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BA6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BB6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BC6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BD6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BE6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BF6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BG6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BH6" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
@@ -1884,7 +2214,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1JT17CS060</t>
+          <t>1JT17CS052</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -2028,6 +2358,61 @@
         </is>
       </c>
       <c r="AW7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AZ7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BA7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BB7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BD7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BE7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BH7" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
@@ -2044,7 +2429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW7"/>
+  <dimension ref="A1:BH7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2298,6 +2683,61 @@
           <t>14-07-2021</t>
         </is>
       </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>14-07-2021</t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>14-07-2021</t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>14-07-2021</t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t>14-07-2021</t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t>15-07-2021</t>
+        </is>
+      </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t>15-07-2021</t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t>15-07-2021</t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t>15-07-2021</t>
+        </is>
+      </c>
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t>15-07-2021</t>
+        </is>
+      </c>
+      <c r="BG1" t="inlineStr">
+        <is>
+          <t>15-07-2021</t>
+        </is>
+      </c>
+      <c r="BH1" t="inlineStr">
+        <is>
+          <t>15-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2545,6 +2985,61 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2792,6 +3287,61 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BD3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3039,11 +3589,66 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BA4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BD4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1JT17CS052</t>
+          <t>1JT17CS058</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3282,6 +3887,61 @@
         </is>
       </c>
       <c r="AW5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BD5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BF5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BG5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BH5" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
@@ -3290,7 +3950,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1JT17CS058</t>
+          <t>1JT17CS060</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -3504,6 +4164,61 @@
         </is>
       </c>
       <c r="AW6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AZ6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BA6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BB6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BC6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BD6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BE6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BF6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BG6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BH6" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
@@ -3512,7 +4227,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1JT17CS060</t>
+          <t>1JT17CS052</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -3656,6 +4371,61 @@
         </is>
       </c>
       <c r="AW7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AZ7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BA7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BB7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BD7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BE7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BH7" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
@@ -3672,7 +4442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW7"/>
+  <dimension ref="A1:BH7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3926,6 +4696,61 @@
           <t>14-07-2021</t>
         </is>
       </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>14-07-2021</t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>14-07-2021</t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>14-07-2021</t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t>14-07-2021</t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t>15-07-2021</t>
+        </is>
+      </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t>15-07-2021</t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t>15-07-2021</t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t>15-07-2021</t>
+        </is>
+      </c>
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t>15-07-2021</t>
+        </is>
+      </c>
+      <c r="BG1" t="inlineStr">
+        <is>
+          <t>15-07-2021</t>
+        </is>
+      </c>
+      <c r="BH1" t="inlineStr">
+        <is>
+          <t>15-07-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4173,6 +4998,61 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4420,6 +5300,61 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BD3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4667,11 +5602,66 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BA4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BD4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1JT17CS052</t>
+          <t>1JT17CS058</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4910,6 +5900,61 @@
         </is>
       </c>
       <c r="AW5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BD5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BF5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BG5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BH5" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
@@ -4918,7 +5963,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1JT17CS058</t>
+          <t>1JT17CS060</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -5132,6 +6177,61 @@
         </is>
       </c>
       <c r="AW6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AZ6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BA6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BB6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BC6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BD6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BE6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BF6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BG6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BH6" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
@@ -5140,7 +6240,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1JT17CS060</t>
+          <t>1JT17CS052</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -5284,6 +6384,61 @@
         </is>
       </c>
       <c r="AW7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AZ7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BA7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BB7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BD7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BE7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="BH7" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
